--- a/TestCase/四年级每日练习功能题目-验证用例.xlsx
+++ b/TestCase/四年级每日练习功能题目-验证用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>用例编号</t>
   </si>
@@ -119,13 +119,21 @@
     <t>四年级-接近整十整百加减-每日练习功能验证</t>
   </si>
   <si>
-    <t>四年级-接近整十整百乘法-每日练习功能验证</t>
-  </si>
-  <si>
     <t>1.打开系统
 2. 点击“点击进入”按钮
 3.年级为四年级的用户,输入用户名和密码,点击"点击登录"按钮
 4.点击"接近整十整百乘法"</t>
+  </si>
+  <si>
+    <t>四年级-接近整十整百乘法-每日练习功能验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面正常显示
+2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
+3.进入系统,显示四年级的题目,为100以内加减运算
+4.页面跳转到题目页面,该页面的题目均是接近整十整百乘法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,7 +547,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,7 +617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>38</v>
       </c>
@@ -669,14 +677,14 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
